--- a/medicine/Mort/American_Battle_Monuments_Commission/American_Battle_Monuments_Commission.xlsx
+++ b/medicine/Mort/American_Battle_Monuments_Commission/American_Battle_Monuments_Commission.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’American Battle Monuments Commission (en français, la « Commission des Monuments Américains de bataille ») est une agence indépendante du gouvernement des États-Unis chargée de l'entretien des monuments et cimetières militaires américains situés sur, ou hors du territoire des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée par le Congrès des États-Unis en 1923, l'American Battle Monuments Commission est une branche autonome du pouvoir exécutif du gouvernement américain. Elle a pour mission de conserver la mémoire des sacrifices et des exploits des forces militaires américaines là où elles servirent depuis le 6 avril 1917, date de l'entrée des États-Unis dans la Première Guerre mondiale.
 La Commission est responsable de l'étude, de la construction et de l'entretien permanent des cimetières militaires et monuments américains établis en dehors du territoire des États-Unis, de même que la supervision de monuments érigés à l'étranger par des citoyens ou associations américaines tant publiques que privées, et d'encourager ceux-ci à les maintenir en état.
@@ -540,13 +554,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Structure de l'ABMC</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Présidents
-Secrétaires</t>
+          <t>Cimetières gérés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des cimetières militaires américains gérés par cette commission :
+</t>
         </is>
       </c>
     </row>
@@ -571,43 +587,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cimetières gérés</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des cimetières militaires américains gérés par cette commission[1] :
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>American_Battle_Monuments_Commission</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/American_Battle_Monuments_Commission</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Monuments gérés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des monuments américains gérés par cette commission[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des monuments américains gérés par cette commission :
 </t>
         </is>
       </c>
